--- a/CSV Parsing/2.Excel Solution/excel sheets.xlsx
+++ b/CSV Parsing/2.Excel Solution/excel sheets.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>sku</t>
   </si>
@@ -152,15 +152,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -473,7 +465,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="231" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -513,7 +505,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="5">
-        <f>IFERROR(VLOOKUP(A3,$D$3:$E$5,2,0),B3)</f>
+        <f>IFERROR(VLOOKUP(A3,$D:$E,2,0),B3)</f>
         <v>123</v>
       </c>
       <c r="D3" s="7">
@@ -531,8 +523,8 @@
         <v>1</v>
       </c>
       <c r="C4" s="5">
-        <f t="shared" ref="C4:C20" si="0">IFERROR(VLOOKUP(A4,$D$3:$E$5,2,0),B4)</f>
-        <v>1</v>
+        <f t="shared" ref="C4:C20" si="0">IFERROR(VLOOKUP(A4,$D:$E,2,0),B4)</f>
+        <v>22</v>
       </c>
       <c r="D4" s="7">
         <v>3</v>
@@ -556,7 +548,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="7">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -564,11 +556,17 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -576,11 +574,17 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>23231</v>
       </c>
       <c r="C7" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>23231</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <v>34234</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -594,6 +598,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="D8" s="7">
+        <v>7</v>
+      </c>
+      <c r="E8" s="7">
+        <v>77</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
@@ -604,7 +614,7 @@
       </c>
       <c r="C9" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -652,7 +662,7 @@
       </c>
       <c r="C13" s="5">
         <f t="shared" si="0"/>
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -730,7 +740,7 @@
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C20" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34234</v>
       </c>
     </row>
   </sheetData>
@@ -744,7 +754,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView zoomScale="230" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -779,7 +789,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="str">
-        <f>IFERROR(VLOOKUP(A3, $D$3:$E$5,2,FALSE),A3)</f>
+        <f>IFERROR(VLOOKUP(A3, $D:$E,2,FALSE),A3)</f>
         <v>A1</v>
       </c>
       <c r="D3" s="1">
@@ -919,7 +929,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView zoomScale="237" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -940,6 +950,9 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
         <v>10</v>
@@ -950,7 +963,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <f>IFERROR(VLOOKUP(A:A, D:E, 2,FALSE), A3)</f>
+        <f t="shared" ref="B3:B14" si="0">IFERROR(VLOOKUP(A:A, D:E, 2,FALSE), A3)</f>
         <v>0</v>
       </c>
       <c r="D3" s="1">
@@ -962,7 +975,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5">
-        <f>IFERROR(VLOOKUP(A:A, D:E, 2,FALSE), A4)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D4" s="1">
@@ -974,7 +987,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <f>IFERROR(VLOOKUP(A:A, D:E, 2,FALSE), A5)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D5" s="1">
@@ -986,7 +999,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="5">
-        <f>IFERROR(VLOOKUP(A:A, D:E, 2,FALSE), A6)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -995,7 +1008,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <f>IFERROR(VLOOKUP(A:A, D:E, 2,FALSE), A7)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -1004,7 +1017,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5">
-        <f>IFERROR(VLOOKUP(A:A, D:E, 2,FALSE), A8)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1013,7 +1026,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <f>IFERROR(VLOOKUP(A:A, D:E, 2,FALSE), A9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1022,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="5">
-        <f>IFERROR(VLOOKUP(A:A, D:E, 2,FALSE), A10)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -1031,7 +1044,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <f>IFERROR(VLOOKUP(A:A, D:E, 2,FALSE), A11)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -1040,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="5">
-        <f>IFERROR(VLOOKUP(A:A, D:E, 2,FALSE), A12)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -1049,7 +1062,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <f>IFERROR(VLOOKUP(A:A, D:E, 2,FALSE), A13)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1058,7 +1071,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="5">
-        <f>IFERROR(VLOOKUP(A:A, D:E, 2,FALSE), A14)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
@@ -1067,5 +1080,6 @@
     <sortCondition ref="B1:B7"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>